--- a/application/template/FORMATO_HORARIOS_MAESTRO.xlsx
+++ b/application/template/FORMATO_HORARIOS_MAESTRO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\ProyectoResidencias\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProyectoResidencias\application\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="223">
   <si>
     <t>M.E. ROCIO ALFONSIN FERAT</t>
   </si>
@@ -690,6 +690,9 @@
   </si>
   <si>
     <t>LCS. JOAQUIN ALBERTO PARRAZAL MEDINA</t>
+  </si>
+  <si>
+    <t>SABADO</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1248,8 +1251,14 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1323,36 +1332,60 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,34 +1395,13 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3082,16 +3094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>979921</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:rowOff>204932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>311728</xdr:colOff>
+      <xdr:colOff>1818410</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3100,7 +3112,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15198148" y="13799705"/>
+          <a:off x="16895330" y="13799705"/>
           <a:ext cx="4302125" cy="20204"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3447,27 +3459,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -3481,43 +3493,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -3531,45 +3543,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -3583,23 +3595,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3646,396 +3658,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="69"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="69"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="69"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="69"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="69"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="70"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="70"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="70"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="70"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="69" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="69"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="69"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="69"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="69"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="68"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="70"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="70"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="70"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="69" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="69"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="69"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="69"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="78"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="69"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="68"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="70"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="70"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="70"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="79"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="70"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="69" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="69"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="69"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="69"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="68"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="70"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="70"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="70"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="70"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="69" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="69"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="69"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="69"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="69"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="69"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="70"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="70"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="70"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="69" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="69"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="69"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="69"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="69"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="69"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="68"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="70"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="70"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="70"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="69"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="69"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="69"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="69"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="69"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="68"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="70"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="70"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="70"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="70"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="70"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="69" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="78"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="78"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="69"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="69"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="69"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="68"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="79"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="79"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="70"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="70"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="70"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="69" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="69"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="69"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="69"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="69"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="69"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="70"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="70"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="70"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="70"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="70"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="82" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="69"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="69"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="69"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="69"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="69"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="81"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="70"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="70"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="70"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="70"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="70"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="82" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="69"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="69"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="69"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="69"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="69"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="81"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="70"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="70"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="70"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="70"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="70"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="82" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="69"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="69"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="69"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="69"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="69"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="81"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="70"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="70"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="70"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="70"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -4045,71 +4057,71 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="86"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="82"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="82" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="84" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="92">
@@ -4236,27 +4248,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -4270,43 +4282,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -4320,45 +4332,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -4372,23 +4384,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4435,396 +4447,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="69"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="69"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="69"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="69"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="69"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="70"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="70"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="70"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="70"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="69" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="69"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="69"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="69"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="69"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="68"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="70"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="70"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="70"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="69" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="69"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="69"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="69"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="78"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="69"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="68"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="70"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="70"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="70"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="79"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="70"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="69" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="69"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="69"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="69"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="68"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="70"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="70"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="70"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="70"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="69" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="69"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="69"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="69"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="69"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="69"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="70"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="70"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="70"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="69" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="69"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="69"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="69"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="69"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="69"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="68"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="70"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="70"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="70"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="69" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="69"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="69"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="69"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="69"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="69"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="68"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="70"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="70"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="70"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="70"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="70"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="69" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="78"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="78"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="69"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="69"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="69"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="68"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="79"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="79"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="70"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="70"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="70"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="69" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="69"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="69"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="69"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="69"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="69"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="70"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="70"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="70"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="70"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="70"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="82" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="69"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="69"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="69"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="69"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="69"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="81"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="70"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="70"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="70"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="70"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="70"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="82" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="69"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="69"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="69"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="69"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="69"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="81"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="70"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="70"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="70"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="70"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="70"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="82" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="69"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="69"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="69"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="69"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="69"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="81"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="70"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="70"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="70"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="70"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -4834,71 +4846,71 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="86"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="82"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="82" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="84" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="92">
@@ -5025,27 +5037,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -5059,43 +5071,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -5109,45 +5121,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -5161,23 +5173,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5224,396 +5236,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="69"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="69"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="69"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="69"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="69"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="70"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="70"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="70"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="70"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="69" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="69"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="69"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="69"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="69"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="68"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="70"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="70"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="70"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="69" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="69"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="69"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="69"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="78"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="69"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="68"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="70"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="70"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="70"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="79"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="70"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="69" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="69"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="69"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="69"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="68"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="70"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="70"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="70"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="70"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="69" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="69"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="69"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="69"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="69"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="69"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="70"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="70"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="70"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="69" t="s">
         <v>111</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="69"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="69"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="69"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="69"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="69"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="68"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="70"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="70"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="70"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="69" t="s">
         <v>112</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="69"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="69"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="69"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="69"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="69"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="68"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="70"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="70"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="70"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="70"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="70"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="69" t="s">
         <v>113</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="78"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="78"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="69"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="69"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="69"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="68"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="79"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="79"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="70"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="70"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="70"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="69" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="69"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="69"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="69"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="69"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="69"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="70"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="70"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="70"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="70"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="70"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="82" t="s">
         <v>115</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="69"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="69"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="69"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="69"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="69"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="81"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="70"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="70"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="70"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="70"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="70"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="82" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="69"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="69"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="69"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="69"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="69"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="81"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="70"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="70"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="70"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="70"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="70"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="82" t="s">
         <v>117</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="69"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="69"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="69"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="69"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="69"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="81"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="70"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="70"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="70"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="70"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -5623,71 +5635,71 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="86"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="82"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="82" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="84" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="92">
@@ -5814,27 +5826,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -5848,43 +5860,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -5898,45 +5910,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -5950,23 +5962,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6013,396 +6025,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>147</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="69"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="69"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="69"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="69"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="69"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="70"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="70"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="70"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="70"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="69" t="s">
         <v>148</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="69"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="69"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="69"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="69"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="68"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="70"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="70"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="70"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="69" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="69"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="69"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="69"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="78"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="69"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="68"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="70"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="70"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="70"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="79"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="70"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="69" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="69"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="69"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="69"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="68"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="70"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="70"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="70"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="70"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="69" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="69"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="69"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="69"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="69"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="69"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="70"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="70"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="70"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="69" t="s">
         <v>152</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="69"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="69"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="69"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="69"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="69"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="68"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="70"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="70"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="70"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="69" t="s">
         <v>153</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="69"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="69"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="69"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="69"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="69"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="68"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="70"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="70"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="70"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="70"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="70"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="69" t="s">
         <v>154</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="78"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="78"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="69"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="69"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="69"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="68"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="79"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="79"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="70"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="70"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="70"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="69" t="s">
         <v>155</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="69"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="69"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="69"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="69"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="69"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="70"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="70"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="70"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="70"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="70"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="82" t="s">
         <v>156</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="69"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="69"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="69"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="69"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="69"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="81"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="70"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="70"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="70"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="70"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="70"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="82" t="s">
         <v>157</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="69"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="69"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="69"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="69"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="69"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="81"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="70"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="70"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="70"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="70"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="70"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="82" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="69"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="69"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="69"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="69"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="69"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="81"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="70"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="70"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="70"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="70"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -6412,71 +6424,71 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="86"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="82"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="82" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="84" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="92">
@@ -6603,27 +6615,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -6637,43 +6649,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -6687,45 +6699,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -6739,23 +6751,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6802,396 +6814,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>188</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="69"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="69"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="69"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="69"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="69"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="70"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="70"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="70"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="70"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="69"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="69"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="69"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="69"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="68"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="70"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="70"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="70"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="69" t="s">
         <v>190</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="69"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="69"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="69"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="78"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="69"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="68"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="70"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="70"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="70"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="79"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="70"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="69" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="69"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="69"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="69"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="68"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="70"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="70"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="70"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="70"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="69" t="s">
         <v>192</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="69"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="69"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="69"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="69"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="69"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="70"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="70"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="70"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="69" t="s">
         <v>193</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="69"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="69"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="69"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="69"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="69"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="68"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="70"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="70"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="70"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="69" t="s">
         <v>194</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="69"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="69"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="69"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="69"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="69"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="68"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="70"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="70"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="70"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="70"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="70"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="69" t="s">
         <v>195</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="78"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="78"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="69"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="69"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="69"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="68"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="79"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="79"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="70"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="70"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="70"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="69" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="69"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="69"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="69"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="69"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="69"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="70"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="70"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="70"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="70"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="70"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="82" t="s">
         <v>197</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="69"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="69"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="69"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="69"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="69"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="81"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="70"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="70"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="70"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="70"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="70"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="82" t="s">
         <v>198</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="69"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="69"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="69"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="69"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="69"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="81"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="70"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="70"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="70"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="70"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="70"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="82" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="69"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="69"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="69"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="69"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="69"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="81"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="70"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="70"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="70"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="70"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -7201,71 +7213,71 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="86"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="82"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="82" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="84" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="92">
@@ -7372,8 +7384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
@@ -7389,30 +7401,32 @@
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="49.1640625" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="49.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1" thickBot="1">
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -7426,43 +7440,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1" thickBot="1">
       <c r="A4" s="10"/>
@@ -7476,31 +7490,31 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="21" thickBot="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="112"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="8" t="s">
         <v>219</v>
       </c>
       <c r="D5" s="22"/>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="112"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="8" t="s">
         <v>220</v>
       </c>
@@ -7508,17 +7522,17 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="21" thickBot="1">
       <c r="A6" s="34"/>
@@ -7532,23 +7546,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="11">
         <v>4</v>
       </c>
@@ -7559,6 +7573,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
+    <row r="8" spans="1:24" ht="13.5" thickBot="1"/>
     <row r="9" spans="1:24" ht="24.95" customHeight="1" thickBot="1">
       <c r="A9" s="25" t="s">
         <v>13</v>
@@ -7593,139 +7608,143 @@
       <c r="K9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="106" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="44"/>
-      <c r="C10" s="105"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="105"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="44"/>
-      <c r="G10" s="105"/>
+      <c r="G10" s="101"/>
       <c r="H10" s="44"/>
-      <c r="I10" s="105"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="45"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="1"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="94"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="46"/>
-      <c r="C11" s="107"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="46"/>
-      <c r="E11" s="107"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="46"/>
-      <c r="G11" s="107"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="107"/>
+      <c r="I11" s="102"/>
       <c r="J11" s="47"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="1"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="12" spans="1:24" ht="57.75" customHeight="1">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="106" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="44"/>
-      <c r="C12" s="105"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="44"/>
-      <c r="E12" s="105"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="105"/>
+      <c r="G12" s="101"/>
       <c r="H12" s="44"/>
-      <c r="I12" s="105"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="44"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="1"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="101"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A13" s="94"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="107"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="46"/>
-      <c r="E13" s="107"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="46"/>
-      <c r="G13" s="107"/>
+      <c r="G13" s="102"/>
       <c r="H13" s="46"/>
-      <c r="I13" s="107"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="46"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="1:24" ht="42.75" customHeight="1">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="106" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="50"/>
-      <c r="C14" s="105"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="105"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="44"/>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
-      <c r="I14" s="103"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="50"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="101"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A15" s="94"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="107"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="46"/>
-      <c r="E15" s="107"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
       <c r="H15" s="58"/>
-      <c r="I15" s="104"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="51"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="1"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="102"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="106" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="35"/>
-      <c r="C16" s="97"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="35"/>
-      <c r="E16" s="97"/>
+      <c r="E16" s="108"/>
       <c r="F16" s="64"/>
       <c r="G16" s="61"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="97"/>
+      <c r="I16" s="108"/>
       <c r="J16" s="64"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="1"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="101"/>
     </row>
     <row r="17" spans="1:13" ht="21" thickBot="1">
-      <c r="A17" s="94"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="98"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="31"/>
-      <c r="E17" s="98"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="31"/>
       <c r="G17" s="62"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="98"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="1"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="103"/>
     </row>
     <row r="18" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="64"/>
@@ -7737,12 +7756,12 @@
       <c r="H18" s="64"/>
       <c r="I18" s="61"/>
       <c r="J18" s="64"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="1"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="101"/>
     </row>
     <row r="19" spans="1:13" ht="21" thickBot="1">
-      <c r="A19" s="94"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="37"/>
       <c r="C19" s="63"/>
       <c r="D19" s="37"/>
@@ -7752,44 +7771,44 @@
       <c r="H19" s="37"/>
       <c r="I19" s="63"/>
       <c r="J19" s="37"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="1"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="104"/>
     </row>
     <row r="20" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="106" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="61"/>
-      <c r="C20" s="101"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="101"/>
+      <c r="E20" s="111"/>
       <c r="F20" s="61"/>
-      <c r="G20" s="101"/>
+      <c r="G20" s="111"/>
       <c r="H20" s="35"/>
-      <c r="I20" s="97"/>
+      <c r="I20" s="108"/>
       <c r="J20" s="61"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="92"/>
     </row>
     <row r="21" spans="1:13" ht="21" thickBot="1">
-      <c r="A21" s="94"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="57"/>
-      <c r="C21" s="102"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="57"/>
-      <c r="E21" s="102"/>
+      <c r="E21" s="112"/>
       <c r="F21" s="57"/>
-      <c r="G21" s="102"/>
+      <c r="G21" s="112"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="98"/>
+      <c r="I21" s="109"/>
       <c r="J21" s="57"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="1"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="51" customHeight="1">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="106" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="38"/>
@@ -7799,14 +7818,14 @@
       <c r="F22" s="38"/>
       <c r="G22" s="59"/>
       <c r="H22" s="35"/>
-      <c r="I22" s="97"/>
+      <c r="I22" s="108"/>
       <c r="J22" s="64"/>
       <c r="K22" s="48"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="1"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="21" thickBot="1">
-      <c r="A23" s="94"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="31"/>
       <c r="C23" s="62"/>
       <c r="D23" s="31"/>
@@ -7814,14 +7833,14 @@
       <c r="F23" s="31"/>
       <c r="G23" s="62"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="98"/>
+      <c r="I23" s="109"/>
       <c r="J23" s="31"/>
       <c r="K23" s="49"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="1"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="67"/>
     </row>
     <row r="24" spans="1:13" ht="45" customHeight="1">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="106" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="38"/>
@@ -7829,164 +7848,164 @@
       <c r="D24" s="38"/>
       <c r="E24" s="59"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="97"/>
+      <c r="G24" s="108"/>
       <c r="H24" s="39"/>
-      <c r="I24" s="97"/>
+      <c r="I24" s="108"/>
       <c r="J24" s="64"/>
       <c r="K24" s="48"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="1"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="21" thickBot="1">
-      <c r="A25" s="94"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="31"/>
       <c r="C25" s="62"/>
       <c r="D25" s="31"/>
       <c r="E25" s="62"/>
       <c r="F25" s="31"/>
-      <c r="G25" s="98"/>
+      <c r="G25" s="109"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="98"/>
+      <c r="I25" s="109"/>
       <c r="J25" s="31"/>
       <c r="K25" s="49"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="1"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="67"/>
     </row>
     <row r="26" spans="1:13" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="106" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="32"/>
-      <c r="C26" s="97"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="32"/>
-      <c r="E26" s="100"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="99"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="99"/>
+      <c r="I26" s="96"/>
       <c r="J26" s="42"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="1"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="94"/>
     </row>
     <row r="27" spans="1:13" ht="21" thickBot="1">
-      <c r="A27" s="94"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="98"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="31"/>
-      <c r="E27" s="98"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="96"/>
+      <c r="G27" s="95"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="96"/>
+      <c r="I27" s="95"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="1"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="95"/>
     </row>
     <row r="28" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="106" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
-      <c r="C28" s="97"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="32"/>
-      <c r="E28" s="97"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="41"/>
-      <c r="G28" s="99"/>
+      <c r="G28" s="96"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="99"/>
+      <c r="I28" s="96"/>
       <c r="J28" s="41"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="1"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="96"/>
     </row>
     <row r="29" spans="1:13" ht="21" thickBot="1">
-      <c r="A29" s="94"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="98"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="31"/>
-      <c r="E29" s="98"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="96"/>
+      <c r="G29" s="95"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="96"/>
+      <c r="I29" s="95"/>
       <c r="J29" s="43"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="1"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="95"/>
     </row>
     <row r="30" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="106" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="52"/>
-      <c r="C30" s="91"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="53"/>
-      <c r="E30" s="91"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="52"/>
-      <c r="G30" s="91"/>
+      <c r="G30" s="97"/>
       <c r="H30" s="52"/>
-      <c r="I30" s="91"/>
+      <c r="I30" s="97"/>
       <c r="J30" s="52"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="1"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="97"/>
     </row>
     <row r="31" spans="1:13" ht="18.75" thickBot="1">
-      <c r="A31" s="94"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="54"/>
-      <c r="C31" s="92"/>
+      <c r="C31" s="98"/>
       <c r="D31" s="54"/>
-      <c r="E31" s="92"/>
+      <c r="E31" s="98"/>
       <c r="F31" s="54"/>
-      <c r="G31" s="92"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="54"/>
-      <c r="I31" s="92"/>
+      <c r="I31" s="98"/>
       <c r="J31" s="54"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="1"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="98"/>
     </row>
     <row r="32" spans="1:13" ht="36" customHeight="1">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="106" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="52"/>
-      <c r="C32" s="91"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="52"/>
-      <c r="E32" s="91"/>
+      <c r="E32" s="97"/>
       <c r="F32" s="52"/>
-      <c r="G32" s="91"/>
+      <c r="G32" s="97"/>
       <c r="H32" s="52"/>
-      <c r="I32" s="91"/>
+      <c r="I32" s="97"/>
       <c r="J32" s="52"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="1"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="97"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" thickBot="1">
-      <c r="A33" s="94"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="54"/>
-      <c r="C33" s="92"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="54"/>
-      <c r="E33" s="92"/>
+      <c r="E33" s="98"/>
       <c r="F33" s="54"/>
-      <c r="G33" s="92"/>
+      <c r="G33" s="98"/>
       <c r="H33" s="54"/>
-      <c r="I33" s="92"/>
+      <c r="I33" s="98"/>
       <c r="J33" s="54"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="1"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="98"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="18">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
       <c r="G34" s="55"/>
       <c r="H34" s="56"/>
       <c r="I34" s="55"/>
@@ -7996,72 +8015,73 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="18.75">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="B35" s="86"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="J35" s="65" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="J35" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="L35" s="9"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="18">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="J36" s="89" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="J36" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="82"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="82" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
       <c r="I37" s="60"/>
-      <c r="J37" s="82" t="s">
+      <c r="J37" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="89">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="N1:X6"/>
     <mergeCell ref="A3:B3"/>
@@ -8132,6 +8152,7 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="K32:K33"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="D36:E36"/>
@@ -8140,6 +8161,16 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/application/template/FORMATO_HORARIOS_MAESTRO.xlsx
+++ b/application/template/FORMATO_HORARIOS_MAESTRO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProyectoResidencias\application\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\ProyectoResidencias\application\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="222">
   <si>
     <t>M.E. ROCIO ALFONSIN FERAT</t>
   </si>
@@ -681,9 +681,6 @@
   </si>
   <si>
     <t>NOMBRE DEL DOCENTE: L.S.C. JOAQUIN ALBERTO PARRAZAL MEDINA</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>0</t>
@@ -1260,33 +1257,69 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1296,41 +1329,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1338,6 +1359,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1347,59 +1386,17 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3459,27 +3456,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -3493,43 +3490,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -3543,45 +3540,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -3595,23 +3592,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3658,396 +3655,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="80" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="72"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="80" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="72"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="80" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="71"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="71"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="80"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="81"/>
+      <c r="I15" s="83"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="80" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="71"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="80" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="71"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="71"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="76"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="77"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="80" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="76"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="77"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="77"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="80" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="76"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="72"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="72"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="80" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="80"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="76"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="81"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="80" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="71"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="76"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="72"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="72"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="77"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="71"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="76"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="76"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="76"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="72"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="72"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="72"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="71"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="76"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="72"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="72"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="78" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="71"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="71"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="76"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="77"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="72"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -4057,74 +4054,153 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
+      <c r="E35" s="73"/>
+      <c r="F35" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89" t="s">
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
+      <c r="E36" s="74"/>
+      <c r="F36" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91" t="s">
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
+      <c r="E37" s="69"/>
+      <c r="F37" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="86" t="s">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -4138,85 +4214,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4248,27 +4245,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -4282,43 +4279,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -4332,45 +4329,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -4384,23 +4381,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4447,396 +4444,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="80" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="72"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="80" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="72"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="80" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="71"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="71"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="80"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="81"/>
+      <c r="I15" s="83"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="80" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="71"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="80" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="71"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="71"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="76"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="77"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="80" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="76"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="77"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="77"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="80" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="76"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="72"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="72"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="80" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="80"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="76"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="81"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="80" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="71"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="76"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="72"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="72"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="77"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="78" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="71"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="76"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="76"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="76"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="72"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="72"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="72"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="78" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="71"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="76"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="72"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="72"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="78" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="71"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="71"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="76"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="77"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="72"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -4846,74 +4843,153 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
+      <c r="E35" s="73"/>
+      <c r="F35" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89" t="s">
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
+      <c r="E36" s="74"/>
+      <c r="F36" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91" t="s">
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
+      <c r="E37" s="69"/>
+      <c r="F37" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="86" t="s">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -4927,85 +5003,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5037,27 +5034,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -5071,43 +5068,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -5121,45 +5118,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -5173,23 +5170,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5236,396 +5233,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="80" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="72"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="80" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="72"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="80" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="71"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="71"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="80"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="81"/>
+      <c r="I15" s="83"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="80" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="71"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="80" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="71"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="71"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="76"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="77"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="80" t="s">
         <v>111</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="76"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="77"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="77"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="80" t="s">
         <v>112</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="76"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="72"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="72"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="80" t="s">
         <v>113</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="80"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="76"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="81"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="80" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="71"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="76"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="72"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="72"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="77"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="78" t="s">
         <v>115</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="71"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="76"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="76"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="76"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="72"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="72"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="72"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="78" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="71"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="76"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="72"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="72"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="78" t="s">
         <v>117</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="71"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="71"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="76"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="77"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="72"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -5635,74 +5632,153 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
+      <c r="E35" s="73"/>
+      <c r="F35" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89" t="s">
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
+      <c r="E36" s="74"/>
+      <c r="F36" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91" t="s">
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
+      <c r="E37" s="69"/>
+      <c r="F37" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="86" t="s">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -5716,85 +5792,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5826,27 +5823,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -5860,43 +5857,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -5910,45 +5907,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -5962,23 +5959,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6025,396 +6022,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="80" t="s">
         <v>147</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="72"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="80" t="s">
         <v>148</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="72"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="80" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="71"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="71"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="80"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="81"/>
+      <c r="I15" s="83"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="80" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="71"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="80" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="71"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="71"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="76"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="77"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="80" t="s">
         <v>152</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="76"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="77"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="77"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="80" t="s">
         <v>153</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="76"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="72"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="72"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="80" t="s">
         <v>154</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="80"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="76"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="81"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="80" t="s">
         <v>155</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="71"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="76"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="72"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="72"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="77"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="78" t="s">
         <v>156</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="71"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="76"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="76"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="76"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="72"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="72"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="72"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="78" t="s">
         <v>157</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="71"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="76"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="72"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="72"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="78" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="71"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="71"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="76"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="77"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="72"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -6424,74 +6421,153 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
+      <c r="E35" s="73"/>
+      <c r="F35" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89" t="s">
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
+      <c r="E36" s="74"/>
+      <c r="F36" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91" t="s">
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
+      <c r="E37" s="69"/>
+      <c r="F37" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="86" t="s">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -6505,85 +6581,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6615,27 +6612,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -6649,43 +6646,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -6699,45 +6696,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -6751,23 +6748,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6814,396 +6811,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="80" t="s">
         <v>188</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="72"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="80" t="s">
         <v>189</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="72"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="80" t="s">
         <v>190</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="71"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="71"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="80"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="81"/>
+      <c r="I15" s="83"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="80" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="71"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="80" t="s">
         <v>192</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="71"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="71"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="76"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="77"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="80" t="s">
         <v>193</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="76"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="77"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="77"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="80" t="s">
         <v>194</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="76"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="72"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="72"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="80" t="s">
         <v>195</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="80"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="76"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="81"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="80" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="71"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="76"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="72"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="72"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="77"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="78" t="s">
         <v>197</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="71"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="76"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="76"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="76"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="72"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="72"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="72"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="78" t="s">
         <v>198</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="71"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="76"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="72"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="72"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="78" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="71"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="71"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="76"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="77"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="72"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -7213,74 +7210,153 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
+      <c r="E35" s="73"/>
+      <c r="F35" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89" t="s">
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
+      <c r="E36" s="74"/>
+      <c r="F36" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91" t="s">
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
+      <c r="E37" s="69"/>
+      <c r="F37" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="86" t="s">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -7294,66 +7370,781 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="49.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="49.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1" thickBot="1">
+      <c r="E1" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+    </row>
+    <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+    </row>
+    <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="85" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+    </row>
+    <row r="4" spans="1:24" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+    </row>
+    <row r="5" spans="1:24" ht="21" thickBot="1">
+      <c r="A5" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="93"/>
+      <c r="G5" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+    </row>
+    <row r="6" spans="1:24" ht="21" thickBot="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+    </row>
+    <row r="7" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A7" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="93"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="13.5" thickBot="1"/>
+    <row r="9" spans="1:24" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A10" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="98"/>
+    </row>
+    <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A11" s="95"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="99"/>
+    </row>
+    <row r="12" spans="1:24" ht="57.75" customHeight="1">
+      <c r="A12" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="96"/>
+    </row>
+    <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A13" s="95"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="97"/>
+    </row>
+    <row r="14" spans="1:24" ht="42.75" customHeight="1">
+      <c r="A14" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="96"/>
+    </row>
+    <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A15" s="95"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="97"/>
+    </row>
+    <row r="16" spans="1:24" ht="39" customHeight="1">
+      <c r="A16" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="96"/>
+    </row>
+    <row r="17" spans="1:13" ht="21" thickBot="1">
+      <c r="A17" s="95"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="105"/>
+    </row>
+    <row r="18" spans="1:13" ht="49.5" customHeight="1">
+      <c r="A18" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="96"/>
+    </row>
+    <row r="19" spans="1:13" ht="21" thickBot="1">
+      <c r="A19" s="95"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="102"/>
+    </row>
+    <row r="20" spans="1:13" ht="47.25" customHeight="1">
+      <c r="A20" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="100"/>
+    </row>
+    <row r="21" spans="1:13" ht="21" thickBot="1">
+      <c r="A21" s="95"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="101"/>
+    </row>
+    <row r="22" spans="1:13" ht="51" customHeight="1">
+      <c r="A22" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="66"/>
+    </row>
+    <row r="23" spans="1:13" ht="21" thickBot="1">
+      <c r="A23" s="95"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="67"/>
+    </row>
+    <row r="24" spans="1:13" ht="45" customHeight="1">
+      <c r="A24" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="66"/>
+    </row>
+    <row r="25" spans="1:13" ht="21" thickBot="1">
+      <c r="A25" s="95"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="67"/>
+    </row>
+    <row r="26" spans="1:13" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A26" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="108"/>
+    </row>
+    <row r="27" spans="1:13" ht="21" thickBot="1">
+      <c r="A27" s="95"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="109"/>
+    </row>
+    <row r="28" spans="1:13" ht="40.5" customHeight="1">
+      <c r="A28" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="110"/>
+    </row>
+    <row r="29" spans="1:13" ht="21" thickBot="1">
+      <c r="A29" s="95"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="109"/>
+    </row>
+    <row r="30" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A30" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="112"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.75" thickBot="1">
+      <c r="A31" s="95"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="113"/>
+    </row>
+    <row r="32" spans="1:13" ht="36" customHeight="1">
+      <c r="A32" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="112"/>
+    </row>
+    <row r="33" spans="1:13" ht="18.75" thickBot="1">
+      <c r="A33" s="95"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="113"/>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="18">
+      <c r="A34" s="114"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" ht="18.75">
+      <c r="A35" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="72"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="J35" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" ht="18">
+      <c r="A36" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="74"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="J36" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" ht="18">
+      <c r="A37" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="68"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="69"/>
+      <c r="F37" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="89">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
     <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K16:K17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
     <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
@@ -7374,804 +8165,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="E5:F5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="47.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="48" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="49.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="49.1640625" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1" thickBot="1">
-      <c r="E1" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-    </row>
-    <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-    </row>
-    <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-    </row>
-    <row r="4" spans="1:24" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-    </row>
-    <row r="5" spans="1:24" ht="21" thickBot="1">
-      <c r="A5" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="113" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-    </row>
-    <row r="6" spans="1:24" ht="21" thickBot="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-    </row>
-    <row r="7" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A7" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="11">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" ht="13.5" thickBot="1"/>
-    <row r="9" spans="1:24" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A10" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="99"/>
-    </row>
-    <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="107"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="100"/>
-    </row>
-    <row r="12" spans="1:24" ht="57.75" customHeight="1">
-      <c r="A12" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="101"/>
-    </row>
-    <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A13" s="107"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="102"/>
-    </row>
-    <row r="14" spans="1:24" ht="42.75" customHeight="1">
-      <c r="A14" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="101"/>
-    </row>
-    <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A15" s="107"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="102"/>
-    </row>
-    <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="101"/>
-    </row>
-    <row r="17" spans="1:13" ht="21" thickBot="1">
-      <c r="A17" s="107"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="103"/>
-    </row>
-    <row r="18" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A18" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="101"/>
-    </row>
-    <row r="19" spans="1:13" ht="21" thickBot="1">
-      <c r="A19" s="107"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="104"/>
-    </row>
-    <row r="20" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A20" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="92"/>
-    </row>
-    <row r="21" spans="1:13" ht="21" thickBot="1">
-      <c r="A21" s="107"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:13" ht="51" customHeight="1">
-      <c r="A22" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="66"/>
-    </row>
-    <row r="23" spans="1:13" ht="21" thickBot="1">
-      <c r="A23" s="107"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="67"/>
-    </row>
-    <row r="24" spans="1:13" ht="45" customHeight="1">
-      <c r="A24" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="66"/>
-    </row>
-    <row r="25" spans="1:13" ht="21" thickBot="1">
-      <c r="A25" s="107"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="67"/>
-    </row>
-    <row r="26" spans="1:13" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="94"/>
-    </row>
-    <row r="27" spans="1:13" ht="21" thickBot="1">
-      <c r="A27" s="107"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="95"/>
-    </row>
-    <row r="28" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A28" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="96"/>
-    </row>
-    <row r="29" spans="1:13" ht="21" thickBot="1">
-      <c r="A29" s="107"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="95"/>
-    </row>
-    <row r="30" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A30" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="97"/>
-    </row>
-    <row r="31" spans="1:13" ht="18.75" thickBot="1">
-      <c r="A31" s="107"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="98"/>
-    </row>
-    <row r="32" spans="1:13" ht="36" customHeight="1">
-      <c r="A32" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="97"/>
-    </row>
-    <row r="33" spans="1:13" ht="18.75" thickBot="1">
-      <c r="A33" s="107"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="98"/>
-    </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" ht="18">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="18.75">
-      <c r="A35" s="88" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="J35" s="115" t="s">
-        <v>221</v>
-      </c>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" ht="18">
-      <c r="A36" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="J36" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-    </row>
-  </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-  </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/application/template/FORMATO_HORARIOS_MAESTRO.xlsx
+++ b/application/template/FORMATO_HORARIOS_MAESTRO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\ProyectoResidencias\application\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProyectoResidencias\application\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="HORARIO-RMD" sheetId="8" state="hidden" r:id="rId5"/>
     <sheet name="Libro 1" sheetId="19" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -683,13 +683,13 @@
     <t>NOMBRE DEL DOCENTE: L.S.C. JOAQUIN ALBERTO PARRAZAL MEDINA</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>LCS. JOAQUIN ALBERTO PARRAZAL MEDINA</t>
   </si>
   <si>
     <t>SABADO</t>
+  </si>
+  <si>
+    <t>=SUMA(C5,G5)</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1257,6 +1257,54 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1281,52 +1329,70 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1335,70 +1401,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3456,27 +3459,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -3490,43 +3493,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -3540,45 +3543,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -3592,23 +3595,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3655,396 +3658,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="69" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="76"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="76"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="76"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="76"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="81"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="77"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="77"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="77"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="77"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="77"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="69" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="76"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="76"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="76"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="76"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="81"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="77"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="77"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="77"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="77"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="69" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="76"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="76"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="76"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="82"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="81"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="77"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="77"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="77"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="83"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="77"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="69" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="76"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="76"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="76"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="76"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="81"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="77"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="77"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="77"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="69" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="76"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="76"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="76"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="76"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="76"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="81"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="77"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="77"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="77"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="77"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="69" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="76"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="76"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="76"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="76"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="76"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="81"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="77"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="77"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="77"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="77"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="77"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="76"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="76"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="76"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="76"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="76"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="81"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="77"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="77"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="77"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="77"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="77"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="69" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="82"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="82"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="76"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="76"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="76"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="81"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="83"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="83"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="77"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="77"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="69" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="76"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="76"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="76"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="76"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="76"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="81"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="77"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="77"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="77"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="77"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="77"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="82" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="76"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="76"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="76"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="76"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="76"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="79"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="77"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="77"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="77"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="77"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="77"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="82" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="76"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="76"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="76"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="76"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="77"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="77"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="77"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="77"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="77"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="82" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="76"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="76"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="76"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="76"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="79"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="77"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="77"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="77"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="77"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="77"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -4054,153 +4057,74 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="68" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="70" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -4214,6 +4138,85 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4245,27 +4248,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -4279,43 +4282,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -4329,45 +4332,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -4381,23 +4384,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4444,396 +4447,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="69" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="76"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="76"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="76"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="76"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="81"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="77"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="77"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="77"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="77"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="77"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="69" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="76"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="76"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="76"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="76"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="81"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="77"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="77"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="77"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="77"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="69" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="76"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="76"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="76"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="82"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="81"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="77"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="77"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="77"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="83"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="77"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="69" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="76"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="76"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="76"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="76"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="81"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="77"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="77"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="77"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="69" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="76"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="76"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="76"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="76"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="76"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="81"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="77"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="77"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="77"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="77"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="69" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="76"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="76"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="76"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="76"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="76"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="81"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="77"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="77"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="77"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="77"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="77"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="69" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="76"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="76"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="76"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="76"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="76"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="81"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="77"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="77"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="77"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="77"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="77"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="69" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="82"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="82"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="76"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="76"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="76"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="81"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="83"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="83"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="77"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="77"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="69" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="76"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="76"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="76"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="76"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="76"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="81"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="77"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="77"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="77"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="77"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="77"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="82" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="76"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="76"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="76"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="76"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="76"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="79"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="77"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="77"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="77"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="77"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="77"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="82" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="76"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="76"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="76"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="76"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="77"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="77"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="77"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="77"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="77"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="82" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="76"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="76"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="76"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="76"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="79"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="77"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="77"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="77"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="77"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="77"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -4843,153 +4846,74 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="68" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="70" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -5003,6 +4927,85 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5034,27 +5037,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -5068,43 +5071,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -5118,45 +5121,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -5170,23 +5173,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5233,396 +5236,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="69" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="76"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="76"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="76"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="76"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="81"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="77"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="77"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="77"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="77"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="77"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="69" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="76"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="76"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="76"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="76"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="81"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="77"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="77"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="77"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="77"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="69" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="76"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="76"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="76"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="82"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="81"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="77"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="77"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="77"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="83"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="77"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="69" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="76"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="76"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="76"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="76"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="81"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="77"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="77"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="77"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="69" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="76"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="76"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="76"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="76"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="76"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="81"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="77"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="77"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="77"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="77"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="69" t="s">
         <v>111</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="76"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="76"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="76"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="76"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="76"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="81"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="77"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="77"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="77"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="77"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="77"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="69" t="s">
         <v>112</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="76"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="76"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="76"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="76"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="76"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="81"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="77"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="77"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="77"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="77"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="77"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="69" t="s">
         <v>113</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="82"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="82"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="76"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="76"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="76"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="81"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="83"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="83"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="77"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="77"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="69" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="76"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="76"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="76"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="76"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="76"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="81"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="77"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="77"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="77"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="77"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="77"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="82" t="s">
         <v>115</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="76"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="76"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="76"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="76"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="76"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="79"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="77"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="77"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="77"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="77"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="77"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="82" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="76"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="76"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="76"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="76"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="77"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="77"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="77"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="77"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="77"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="82" t="s">
         <v>117</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="76"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="76"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="76"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="76"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="79"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="77"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="77"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="77"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="77"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="77"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -5632,153 +5635,74 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="68" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="70" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -5792,6 +5716,85 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5823,27 +5826,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -5857,43 +5860,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -5907,45 +5910,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -5959,23 +5962,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6022,396 +6025,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="69" t="s">
         <v>147</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="76"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="76"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="76"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="76"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="81"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="77"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="77"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="77"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="77"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="77"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="69" t="s">
         <v>148</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="76"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="76"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="76"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="76"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="81"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="77"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="77"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="77"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="77"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="69" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="76"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="76"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="76"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="82"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="81"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="77"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="77"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="77"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="83"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="77"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="69" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="76"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="76"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="76"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="76"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="81"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="77"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="77"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="77"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="69" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="76"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="76"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="76"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="76"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="76"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="81"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="77"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="77"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="77"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="77"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="69" t="s">
         <v>152</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="76"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="76"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="76"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="76"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="76"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="81"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="77"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="77"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="77"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="77"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="77"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="69" t="s">
         <v>153</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="76"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="76"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="76"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="76"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="76"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="81"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="77"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="77"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="77"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="77"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="77"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="69" t="s">
         <v>154</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="82"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="82"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="76"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="76"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="76"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="81"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="83"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="83"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="77"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="77"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="69" t="s">
         <v>155</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="76"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="76"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="76"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="76"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="76"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="81"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="77"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="77"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="77"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="77"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="77"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="82" t="s">
         <v>156</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="76"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="76"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="76"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="76"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="76"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="79"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="77"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="77"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="77"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="77"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="77"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="82" t="s">
         <v>157</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="76"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="76"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="76"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="76"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="77"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="77"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="77"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="77"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="77"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="82" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="76"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="76"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="76"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="76"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="79"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="77"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="77"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="77"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="77"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="77"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -6421,153 +6424,74 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="68" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="70" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -6581,6 +6505,85 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6612,27 +6615,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -6646,43 +6649,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -6696,45 +6699,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -6748,23 +6751,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6811,396 +6814,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="69" t="s">
         <v>188</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="76"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="76"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="76"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="76"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="81"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="77"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="77"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="77"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="77"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="77"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="76"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="76"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="76"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="76"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="81"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="77"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="77"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="77"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="77"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="69" t="s">
         <v>190</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="76"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="76"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="76"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="82"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="81"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="77"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="77"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="77"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="83"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="77"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="69" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="76"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="76"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="76"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="76"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="81"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="77"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="77"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="77"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="69" t="s">
         <v>192</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="76"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="76"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="76"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="76"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="76"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="81"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="77"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="77"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="77"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="77"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="69" t="s">
         <v>193</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="76"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="76"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="76"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="76"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="76"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="81"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="77"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="77"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="77"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="77"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="77"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="69" t="s">
         <v>194</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="76"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="76"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="76"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="76"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="76"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="81"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="77"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="77"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="77"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="77"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="77"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="69" t="s">
         <v>195</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="82"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="82"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="76"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="76"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="76"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="81"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="83"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="83"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="77"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="77"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="69" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="76"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="76"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="76"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="76"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="76"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="81"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="77"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="77"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="77"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="77"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="77"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="82" t="s">
         <v>197</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="76"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="76"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="76"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="76"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="76"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="79"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="77"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="77"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="77"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="77"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="77"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="82" t="s">
         <v>198</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="76"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="76"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="76"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="76"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="77"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="77"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="77"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="77"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="77"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="82" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="76"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="76"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="76"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="76"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="79"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="77"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="77"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="77"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="77"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="77"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -7210,153 +7213,74 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73" t="s">
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="68" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="70" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -7370,6 +7294,85 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7382,7 +7385,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
@@ -7403,27 +7406,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1" thickBot="1">
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -7437,43 +7440,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1" thickBot="1">
       <c r="A4" s="10"/>
@@ -7487,47 +7490,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="21" thickBot="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="93"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="8" t="s">
-        <v>219</v>
-      </c>
+      <c r="F5" s="115"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="21" thickBot="1">
       <c r="A6" s="34"/>
@@ -7541,24 +7542,26 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="116" t="s">
+        <v>221</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="22"/>
@@ -7602,142 +7605,142 @@
         <v>15</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M9" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="107" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="44"/>
-      <c r="C10" s="96"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="96"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="44"/>
-      <c r="G10" s="96"/>
+      <c r="G10" s="101"/>
       <c r="H10" s="44"/>
-      <c r="I10" s="96"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="45"/>
-      <c r="K10" s="98"/>
+      <c r="K10" s="99"/>
       <c r="L10" s="45"/>
-      <c r="M10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="95"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="46"/>
-      <c r="C11" s="97"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="46"/>
-      <c r="E11" s="97"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="46"/>
-      <c r="G11" s="97"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="97"/>
+      <c r="I11" s="102"/>
       <c r="J11" s="47"/>
-      <c r="K11" s="99"/>
+      <c r="K11" s="100"/>
       <c r="L11" s="47"/>
-      <c r="M11" s="99"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="12" spans="1:24" ht="57.75" customHeight="1">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="107" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="44"/>
-      <c r="C12" s="96"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="44"/>
-      <c r="E12" s="96"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="96"/>
+      <c r="G12" s="101"/>
       <c r="H12" s="44"/>
-      <c r="I12" s="96"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="44"/>
-      <c r="K12" s="96"/>
+      <c r="K12" s="101"/>
       <c r="L12" s="44"/>
-      <c r="M12" s="96"/>
+      <c r="M12" s="101"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A13" s="95"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="97"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="46"/>
-      <c r="E13" s="97"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="46"/>
-      <c r="G13" s="97"/>
+      <c r="G13" s="102"/>
       <c r="H13" s="46"/>
-      <c r="I13" s="97"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="46"/>
-      <c r="K13" s="97"/>
+      <c r="K13" s="102"/>
       <c r="L13" s="46"/>
-      <c r="M13" s="97"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="1:24" ht="42.75" customHeight="1">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="107" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="50"/>
-      <c r="C14" s="96"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="96"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="44"/>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
-      <c r="I14" s="100"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="50"/>
-      <c r="K14" s="96"/>
+      <c r="K14" s="101"/>
       <c r="L14" s="50"/>
-      <c r="M14" s="96"/>
+      <c r="M14" s="101"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A15" s="95"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="97"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="46"/>
-      <c r="E15" s="97"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
       <c r="H15" s="58"/>
-      <c r="I15" s="101"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="51"/>
-      <c r="K15" s="97"/>
+      <c r="K15" s="102"/>
       <c r="L15" s="51"/>
-      <c r="M15" s="97"/>
+      <c r="M15" s="102"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="107" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="35"/>
-      <c r="C16" s="103"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="35"/>
-      <c r="E16" s="103"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="64"/>
       <c r="G16" s="61"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="103"/>
+      <c r="I16" s="109"/>
       <c r="J16" s="64"/>
-      <c r="K16" s="96"/>
+      <c r="K16" s="101"/>
       <c r="L16" s="64"/>
-      <c r="M16" s="96"/>
+      <c r="M16" s="101"/>
     </row>
     <row r="17" spans="1:13" ht="21" thickBot="1">
-      <c r="A17" s="95"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="104"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="31"/>
-      <c r="E17" s="104"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="31"/>
       <c r="G17" s="62"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="104"/>
+      <c r="I17" s="110"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="105"/>
+      <c r="K17" s="103"/>
       <c r="L17" s="37"/>
-      <c r="M17" s="105"/>
+      <c r="M17" s="103"/>
     </row>
     <row r="18" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="107" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="64"/>
@@ -7749,12 +7752,12 @@
       <c r="H18" s="64"/>
       <c r="I18" s="61"/>
       <c r="J18" s="64"/>
-      <c r="K18" s="96"/>
+      <c r="K18" s="101"/>
       <c r="L18" s="64"/>
-      <c r="M18" s="96"/>
+      <c r="M18" s="101"/>
     </row>
     <row r="19" spans="1:13" ht="21" thickBot="1">
-      <c r="A19" s="95"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="37"/>
       <c r="C19" s="63"/>
       <c r="D19" s="37"/>
@@ -7764,44 +7767,44 @@
       <c r="H19" s="37"/>
       <c r="I19" s="63"/>
       <c r="J19" s="37"/>
-      <c r="K19" s="102"/>
+      <c r="K19" s="104"/>
       <c r="L19" s="37"/>
-      <c r="M19" s="102"/>
+      <c r="M19" s="104"/>
     </row>
     <row r="20" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="107" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="61"/>
-      <c r="C20" s="106"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="106"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="61"/>
-      <c r="G20" s="106"/>
+      <c r="G20" s="112"/>
       <c r="H20" s="35"/>
-      <c r="I20" s="103"/>
+      <c r="I20" s="109"/>
       <c r="J20" s="61"/>
-      <c r="K20" s="100"/>
+      <c r="K20" s="92"/>
       <c r="L20" s="65"/>
-      <c r="M20" s="100"/>
+      <c r="M20" s="92"/>
     </row>
     <row r="21" spans="1:13" ht="21" thickBot="1">
-      <c r="A21" s="95"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="57"/>
-      <c r="C21" s="107"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="57"/>
-      <c r="E21" s="107"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="57"/>
-      <c r="G21" s="107"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="104"/>
+      <c r="I21" s="110"/>
       <c r="J21" s="57"/>
-      <c r="K21" s="101"/>
+      <c r="K21" s="93"/>
       <c r="L21" s="57"/>
-      <c r="M21" s="101"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="51" customHeight="1">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="107" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="38"/>
@@ -7811,14 +7814,14 @@
       <c r="F22" s="38"/>
       <c r="G22" s="59"/>
       <c r="H22" s="35"/>
-      <c r="I22" s="103"/>
+      <c r="I22" s="109"/>
       <c r="J22" s="64"/>
       <c r="K22" s="48"/>
       <c r="L22" s="64"/>
       <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="21" thickBot="1">
-      <c r="A23" s="95"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="31"/>
       <c r="C23" s="62"/>
       <c r="D23" s="31"/>
@@ -7826,14 +7829,14 @@
       <c r="F23" s="31"/>
       <c r="G23" s="62"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="104"/>
+      <c r="I23" s="110"/>
       <c r="J23" s="31"/>
       <c r="K23" s="49"/>
       <c r="L23" s="31"/>
       <c r="M23" s="67"/>
     </row>
     <row r="24" spans="1:13" ht="45" customHeight="1">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="107" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="38"/>
@@ -7841,164 +7844,164 @@
       <c r="D24" s="38"/>
       <c r="E24" s="59"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="103"/>
+      <c r="G24" s="109"/>
       <c r="H24" s="39"/>
-      <c r="I24" s="103"/>
+      <c r="I24" s="109"/>
       <c r="J24" s="64"/>
       <c r="K24" s="48"/>
       <c r="L24" s="64"/>
       <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="21" thickBot="1">
-      <c r="A25" s="95"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="31"/>
       <c r="C25" s="62"/>
       <c r="D25" s="31"/>
       <c r="E25" s="62"/>
       <c r="F25" s="31"/>
-      <c r="G25" s="104"/>
+      <c r="G25" s="110"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="104"/>
+      <c r="I25" s="110"/>
       <c r="J25" s="31"/>
       <c r="K25" s="49"/>
       <c r="L25" s="31"/>
       <c r="M25" s="67"/>
     </row>
     <row r="26" spans="1:13" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="107" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="32"/>
-      <c r="C26" s="103"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="32"/>
       <c r="E26" s="111"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="110"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="110"/>
+      <c r="I26" s="96"/>
       <c r="J26" s="42"/>
-      <c r="K26" s="108"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="42"/>
-      <c r="M26" s="108"/>
+      <c r="M26" s="94"/>
     </row>
     <row r="27" spans="1:13" ht="21" thickBot="1">
-      <c r="A27" s="95"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="104"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="31"/>
-      <c r="E27" s="104"/>
+      <c r="E27" s="110"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="109"/>
+      <c r="G27" s="95"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="109"/>
+      <c r="I27" s="95"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="109"/>
+      <c r="K27" s="95"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="109"/>
+      <c r="M27" s="95"/>
     </row>
     <row r="28" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="107" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="32"/>
-      <c r="C28" s="103"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="32"/>
-      <c r="E28" s="103"/>
+      <c r="E28" s="109"/>
       <c r="F28" s="41"/>
-      <c r="G28" s="110"/>
+      <c r="G28" s="96"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="110"/>
+      <c r="I28" s="96"/>
       <c r="J28" s="41"/>
-      <c r="K28" s="110"/>
+      <c r="K28" s="96"/>
       <c r="L28" s="41"/>
-      <c r="M28" s="110"/>
+      <c r="M28" s="96"/>
     </row>
     <row r="29" spans="1:13" ht="21" thickBot="1">
-      <c r="A29" s="95"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="104"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="31"/>
-      <c r="E29" s="104"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="109"/>
+      <c r="G29" s="95"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="109"/>
+      <c r="I29" s="95"/>
       <c r="J29" s="43"/>
-      <c r="K29" s="109"/>
+      <c r="K29" s="95"/>
       <c r="L29" s="43"/>
-      <c r="M29" s="109"/>
+      <c r="M29" s="95"/>
     </row>
     <row r="30" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="107" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="52"/>
-      <c r="C30" s="112"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="53"/>
-      <c r="E30" s="112"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="52"/>
-      <c r="G30" s="112"/>
+      <c r="G30" s="97"/>
       <c r="H30" s="52"/>
-      <c r="I30" s="112"/>
+      <c r="I30" s="97"/>
       <c r="J30" s="52"/>
-      <c r="K30" s="112"/>
+      <c r="K30" s="97"/>
       <c r="L30" s="52"/>
-      <c r="M30" s="112"/>
+      <c r="M30" s="97"/>
     </row>
     <row r="31" spans="1:13" ht="18.75" thickBot="1">
-      <c r="A31" s="95"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="54"/>
-      <c r="C31" s="113"/>
+      <c r="C31" s="98"/>
       <c r="D31" s="54"/>
-      <c r="E31" s="113"/>
+      <c r="E31" s="98"/>
       <c r="F31" s="54"/>
-      <c r="G31" s="113"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="54"/>
-      <c r="I31" s="113"/>
+      <c r="I31" s="98"/>
       <c r="J31" s="54"/>
-      <c r="K31" s="113"/>
+      <c r="K31" s="98"/>
       <c r="L31" s="54"/>
-      <c r="M31" s="113"/>
+      <c r="M31" s="98"/>
     </row>
     <row r="32" spans="1:13" ht="36" customHeight="1">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="107" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="52"/>
-      <c r="C32" s="112"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="52"/>
-      <c r="E32" s="112"/>
+      <c r="E32" s="97"/>
       <c r="F32" s="52"/>
-      <c r="G32" s="112"/>
+      <c r="G32" s="97"/>
       <c r="H32" s="52"/>
-      <c r="I32" s="112"/>
+      <c r="I32" s="97"/>
       <c r="J32" s="52"/>
-      <c r="K32" s="112"/>
+      <c r="K32" s="97"/>
       <c r="L32" s="52"/>
-      <c r="M32" s="112"/>
+      <c r="M32" s="97"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" thickBot="1">
-      <c r="A33" s="95"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="54"/>
-      <c r="C33" s="113"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="54"/>
-      <c r="E33" s="113"/>
+      <c r="E33" s="98"/>
       <c r="F33" s="54"/>
-      <c r="G33" s="113"/>
+      <c r="G33" s="98"/>
       <c r="H33" s="54"/>
-      <c r="I33" s="113"/>
+      <c r="I33" s="98"/>
       <c r="J33" s="54"/>
-      <c r="K33" s="113"/>
+      <c r="K33" s="98"/>
       <c r="L33" s="54"/>
-      <c r="M33" s="113"/>
+      <c r="M33" s="98"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="18">
-      <c r="A34" s="114"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
       <c r="G34" s="55"/>
       <c r="H34" s="56"/>
       <c r="I34" s="55"/>
@@ -8008,127 +8011,92 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="18.75">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="B35" s="72"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73" t="s">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="J35" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="J35" s="106" t="s">
+        <v>219</v>
+      </c>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="18">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="J36" s="75" t="s">
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="J36" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="68" t="s">
+      <c r="E37" s="85"/>
+      <c r="F37" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
       <c r="I37" s="60"/>
-      <c r="J37" s="68" t="s">
+      <c r="J37" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="K18:K19"/>
@@ -8145,25 +8113,60 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/application/template/FORMATO_HORARIOS_MAESTRO.xlsx
+++ b/application/template/FORMATO_HORARIOS_MAESTRO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="221">
   <si>
     <t>M.E. ROCIO ALFONSIN FERAT</t>
   </si>
@@ -687,9 +687,6 @@
   </si>
   <si>
     <t>SABADO</t>
-  </si>
-  <si>
-    <t>=SUMA(C5,G5)</t>
   </si>
 </sst>
 </file>
@@ -1257,33 +1254,72 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1293,41 +1329,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1335,6 +1359,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1344,64 +1386,19 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3459,27 +3456,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -3493,43 +3490,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -3543,45 +3540,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -3595,23 +3592,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3658,396 +3655,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="81" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="72"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="78"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="81" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="72"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="78"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="81" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="71"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="71"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="80"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="81"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="78"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="81" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="71"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="78"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="81" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="71"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="71"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="78"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="78"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="81" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="77"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="78"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="81" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="77"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="72"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="72"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="78"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="78"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="81" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="80"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="77"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="81"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="78"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="81" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="71"/>
+      <c r="I26" s="77"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="72"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="72"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="78"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="79" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="71"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="77"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="72"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="72"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="72"/>
+      <c r="K29" s="78"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="79" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="71"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="77"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="77"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="72"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="78"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="72"/>
+      <c r="K31" s="78"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="79" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="71"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="71"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="77"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="72"/>
+      <c r="G33" s="78"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="78"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="78"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -4057,74 +4054,153 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
+      <c r="E35" s="74"/>
+      <c r="F35" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89" t="s">
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
+      <c r="E36" s="75"/>
+      <c r="F36" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91" t="s">
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
+      <c r="E37" s="70"/>
+      <c r="F37" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="86" t="s">
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -4138,85 +4214,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4248,27 +4245,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -4282,43 +4279,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -4332,45 +4329,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -4384,23 +4381,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4447,396 +4444,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="81" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="72"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="78"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="81" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="72"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="78"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="81" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="71"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="71"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="80"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="81"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="78"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="81" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="71"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="78"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="81" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="71"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="71"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="78"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="78"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="81" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="77"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="78"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="81" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="77"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="72"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="72"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="78"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="78"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="81" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="80"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="77"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="81"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="78"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="81" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="71"/>
+      <c r="I26" s="77"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="72"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="72"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="78"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="79" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="71"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="77"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="72"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="72"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="72"/>
+      <c r="K29" s="78"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="79" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="71"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="77"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="77"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="72"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="78"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="72"/>
+      <c r="K31" s="78"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="79" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="71"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="71"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="77"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="72"/>
+      <c r="G33" s="78"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="78"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="78"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -4846,74 +4843,153 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
+      <c r="E35" s="74"/>
+      <c r="F35" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89" t="s">
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
+      <c r="E36" s="75"/>
+      <c r="F36" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91" t="s">
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
+      <c r="E37" s="70"/>
+      <c r="F37" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="86" t="s">
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -4927,85 +5003,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5037,27 +5034,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -5071,43 +5068,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -5121,45 +5118,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -5173,23 +5170,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5236,396 +5233,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="81" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="72"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="78"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="81" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="72"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="78"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="81" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="71"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="71"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="80"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="81"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="78"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="81" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="71"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="78"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="81" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="71"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="71"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="78"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="78"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="81" t="s">
         <v>111</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="77"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="78"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="81" t="s">
         <v>112</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="77"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="72"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="72"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="78"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="78"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="81" t="s">
         <v>113</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="80"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="77"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="81"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="78"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="81" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="71"/>
+      <c r="I26" s="77"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="72"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="72"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="78"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="79" t="s">
         <v>115</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="71"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="77"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="72"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="72"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="72"/>
+      <c r="K29" s="78"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="79" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="71"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="77"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="77"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="72"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="78"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="72"/>
+      <c r="K31" s="78"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="79" t="s">
         <v>117</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="71"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="71"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="77"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="72"/>
+      <c r="G33" s="78"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="78"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="78"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -5635,74 +5632,153 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
+      <c r="E35" s="74"/>
+      <c r="F35" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89" t="s">
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
+      <c r="E36" s="75"/>
+      <c r="F36" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91" t="s">
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
+      <c r="E37" s="70"/>
+      <c r="F37" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="86" t="s">
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -5716,85 +5792,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5826,27 +5823,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -5860,43 +5857,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -5910,45 +5907,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -5962,23 +5959,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6025,396 +6022,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="81" t="s">
         <v>147</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="72"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="78"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="81" t="s">
         <v>148</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="72"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="78"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="81" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="71"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="71"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="80"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="81"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="78"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="81" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="71"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="78"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="81" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="71"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="71"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="78"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="78"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="81" t="s">
         <v>152</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="77"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="78"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="81" t="s">
         <v>153</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="77"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="72"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="72"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="78"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="78"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="81" t="s">
         <v>154</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="80"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="77"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="81"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="78"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="81" t="s">
         <v>155</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="71"/>
+      <c r="I26" s="77"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="72"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="72"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="78"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="79" t="s">
         <v>156</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="71"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="77"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="72"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="72"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="72"/>
+      <c r="K29" s="78"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="79" t="s">
         <v>157</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="71"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="77"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="77"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="72"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="78"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="72"/>
+      <c r="K31" s="78"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="79" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="71"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="71"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="77"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="72"/>
+      <c r="G33" s="78"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="78"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="78"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -6424,74 +6421,153 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
+      <c r="E35" s="74"/>
+      <c r="F35" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89" t="s">
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
+      <c r="E36" s="75"/>
+      <c r="F36" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91" t="s">
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
+      <c r="E37" s="70"/>
+      <c r="F37" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="86" t="s">
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -6505,85 +6581,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6615,27 +6612,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1">
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
     </row>
     <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -6649,43 +6646,43 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
     </row>
     <row r="4" spans="1:24" ht="10.5" customHeight="1">
       <c r="A4" s="10"/>
@@ -6699,45 +6696,45 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
     </row>
     <row r="5" spans="1:24" ht="20.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="8"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
     </row>
     <row r="6" spans="1:24" ht="20.25">
       <c r="A6" s="23"/>
@@ -6751,23 +6748,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6814,396 +6811,396 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="39" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="81" t="s">
         <v>188</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="72"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="72"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="78"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="39" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="81" t="s">
         <v>189</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="72"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="72"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="78"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="39" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="81" t="s">
         <v>190</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="71"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="71"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="80"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="81"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="78"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="81" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="71"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="78"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="39" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="81" t="s">
         <v>192</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="71"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="71"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="78"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="78"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="81" t="s">
         <v>193</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="71"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="71"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="77"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="78"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="81" t="s">
         <v>194</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="71"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="77"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="72"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="72"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="78"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="78"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="81" t="s">
         <v>195</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="80"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="77"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="81"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="78"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="81" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="71"/>
+      <c r="I26" s="77"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="72"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="72"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="78"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="39" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="79" t="s">
         <v>197</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="71"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="71"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="77"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="83"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="72"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="72"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="72"/>
+      <c r="K29" s="78"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="79" t="s">
         <v>198</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="71"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="77"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="77"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="72"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="78"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="72"/>
+      <c r="K31" s="78"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="39" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="71"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="71"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="77"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="72"/>
+      <c r="G33" s="78"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="78"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="78"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
       <c r="I34" s="19"/>
@@ -7213,74 +7210,153 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
+      <c r="E35" s="74"/>
+      <c r="F35" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89" t="s">
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
+      <c r="E36" s="75"/>
+      <c r="F36" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91" t="s">
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
+      <c r="E37" s="70"/>
+      <c r="F37" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="86" t="s">
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="N1:X6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -7294,66 +7370,779 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="49.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="49.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1" thickBot="1">
+      <c r="E1" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+    </row>
+    <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+    </row>
+    <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+    </row>
+    <row r="4" spans="1:24" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+    </row>
+    <row r="5" spans="1:24" ht="21" thickBot="1">
+      <c r="A5" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="94"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+    </row>
+    <row r="6" spans="1:24" ht="21" thickBot="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+    </row>
+    <row r="7" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A7" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="13.5" thickBot="1"/>
+    <row r="9" spans="1:24" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A10" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="99"/>
+    </row>
+    <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A11" s="96"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="100"/>
+    </row>
+    <row r="12" spans="1:24" ht="57.75" customHeight="1">
+      <c r="A12" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="97"/>
+    </row>
+    <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A13" s="96"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="98"/>
+    </row>
+    <row r="14" spans="1:24" ht="42.75" customHeight="1">
+      <c r="A14" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="97"/>
+    </row>
+    <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A15" s="96"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="98"/>
+    </row>
+    <row r="16" spans="1:24" ht="39" customHeight="1">
+      <c r="A16" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="97"/>
+    </row>
+    <row r="17" spans="1:13" ht="21" thickBot="1">
+      <c r="A17" s="96"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="106"/>
+    </row>
+    <row r="18" spans="1:13" ht="49.5" customHeight="1">
+      <c r="A18" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="97"/>
+    </row>
+    <row r="19" spans="1:13" ht="21" thickBot="1">
+      <c r="A19" s="96"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="103"/>
+    </row>
+    <row r="20" spans="1:13" ht="47.25" customHeight="1">
+      <c r="A20" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="101"/>
+    </row>
+    <row r="21" spans="1:13" ht="21" thickBot="1">
+      <c r="A21" s="96"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="102"/>
+    </row>
+    <row r="22" spans="1:13" ht="51" customHeight="1">
+      <c r="A22" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="66"/>
+    </row>
+    <row r="23" spans="1:13" ht="21" thickBot="1">
+      <c r="A23" s="96"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="67"/>
+    </row>
+    <row r="24" spans="1:13" ht="45" customHeight="1">
+      <c r="A24" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="66"/>
+    </row>
+    <row r="25" spans="1:13" ht="21" thickBot="1">
+      <c r="A25" s="96"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="67"/>
+    </row>
+    <row r="26" spans="1:13" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A26" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="109"/>
+    </row>
+    <row r="27" spans="1:13" ht="21" thickBot="1">
+      <c r="A27" s="96"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="110"/>
+    </row>
+    <row r="28" spans="1:13" ht="40.5" customHeight="1">
+      <c r="A28" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="111"/>
+    </row>
+    <row r="29" spans="1:13" ht="21" thickBot="1">
+      <c r="A29" s="96"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="110"/>
+    </row>
+    <row r="30" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A30" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="113"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.75" thickBot="1">
+      <c r="A31" s="96"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="114"/>
+    </row>
+    <row r="32" spans="1:13" ht="36" customHeight="1">
+      <c r="A32" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="113"/>
+    </row>
+    <row r="33" spans="1:13" ht="18.75" thickBot="1">
+      <c r="A33" s="96"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="114"/>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="18">
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" ht="18.75">
+      <c r="A35" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="J35" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" ht="18">
+      <c r="A36" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="75"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="75"/>
+      <c r="F36" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="J36" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" ht="18">
+      <c r="A37" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="69"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="70"/>
+      <c r="F37" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="89">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
     <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K16:K17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
     <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
@@ -7374,800 +8163,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="E5:F5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="47.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="48" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="49.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="49.1640625" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="129.94999999999999" customHeight="1" thickBot="1">
-      <c r="E1" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-    </row>
-    <row r="2" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-    </row>
-    <row r="3" spans="1:24" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-    </row>
-    <row r="4" spans="1:24" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-    </row>
-    <row r="5" spans="1:24" ht="21" thickBot="1">
-      <c r="A5" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-    </row>
-    <row r="6" spans="1:24" ht="21" thickBot="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-    </row>
-    <row r="7" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A7" s="114" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="116" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" ht="13.5" thickBot="1"/>
-    <row r="9" spans="1:24" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A10" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="99"/>
-    </row>
-    <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="100"/>
-    </row>
-    <row r="12" spans="1:24" ht="57.75" customHeight="1">
-      <c r="A12" s="107" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="101"/>
-    </row>
-    <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A13" s="108"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="102"/>
-    </row>
-    <row r="14" spans="1:24" ht="42.75" customHeight="1">
-      <c r="A14" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="101"/>
-    </row>
-    <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A15" s="108"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="102"/>
-    </row>
-    <row r="16" spans="1:24" ht="39" customHeight="1">
-      <c r="A16" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="101"/>
-    </row>
-    <row r="17" spans="1:13" ht="21" thickBot="1">
-      <c r="A17" s="108"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="103"/>
-    </row>
-    <row r="18" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A18" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="101"/>
-    </row>
-    <row r="19" spans="1:13" ht="21" thickBot="1">
-      <c r="A19" s="108"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="104"/>
-    </row>
-    <row r="20" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A20" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="92"/>
-    </row>
-    <row r="21" spans="1:13" ht="21" thickBot="1">
-      <c r="A21" s="108"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:13" ht="51" customHeight="1">
-      <c r="A22" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="66"/>
-    </row>
-    <row r="23" spans="1:13" ht="21" thickBot="1">
-      <c r="A23" s="108"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="67"/>
-    </row>
-    <row r="24" spans="1:13" ht="45" customHeight="1">
-      <c r="A24" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="66"/>
-    </row>
-    <row r="25" spans="1:13" ht="21" thickBot="1">
-      <c r="A25" s="108"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="67"/>
-    </row>
-    <row r="26" spans="1:13" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="94"/>
-    </row>
-    <row r="27" spans="1:13" ht="21" thickBot="1">
-      <c r="A27" s="108"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="95"/>
-    </row>
-    <row r="28" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A28" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="96"/>
-    </row>
-    <row r="29" spans="1:13" ht="21" thickBot="1">
-      <c r="A29" s="108"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="95"/>
-    </row>
-    <row r="30" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A30" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="97"/>
-    </row>
-    <row r="31" spans="1:13" ht="18.75" thickBot="1">
-      <c r="A31" s="108"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="98"/>
-    </row>
-    <row r="32" spans="1:13" ht="36" customHeight="1">
-      <c r="A32" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="97"/>
-    </row>
-    <row r="33" spans="1:13" ht="18.75" thickBot="1">
-      <c r="A33" s="108"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="98"/>
-    </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" ht="18">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="18.75">
-      <c r="A35" s="88" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="J35" s="106" t="s">
-        <v>219</v>
-      </c>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" ht="18">
-      <c r="A36" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="J36" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-    </row>
-  </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="N1:X6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-  </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
